--- a/data/RandomAddresses.xlsx
+++ b/data/RandomAddresses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unomail-my.sharepoint.com/personal/isossa_unomaha_edu/Documents/ISC Project/ISC Project Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unomail-my.sharepoint.com/personal/isossa_unomaha_edu/Documents/FastRouting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{9207E3F7-AAD9-48E4-BCD8-53259F22A510}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A0822A08-EF93-46FA-9B8C-2C7672163E5F}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{9207E3F7-AAD9-48E4-BCD8-53259F22A510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3573394B-DFF8-40E5-B33F-FB1BD6802FCD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2FCAA395-8D1B-40D1-8892-17125C282A10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FCAA395-8D1B-40D1-8892-17125C282A10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="387">
   <si>
     <t xml:space="preserve">(402) 827-0990 </t>
   </si>
@@ -1193,6 +1193,9 @@
   </si>
   <si>
     <t>302 Lerdahl Pass</t>
+  </si>
+  <si>
+    <t>Home Base</t>
   </si>
 </sst>
 </file>
@@ -1547,21 +1550,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15CA471-77D7-42CD-A1AF-77F4596AFF55}">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -1577,8 +1581,11 @@
       <c r="E1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1594,8 +1601,11 @@
       <c r="E2">
         <v>68106</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1611,8 +1621,11 @@
       <c r="E3">
         <v>68114</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1628,8 +1641,11 @@
       <c r="E4">
         <v>68134</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1645,8 +1661,11 @@
       <c r="E5">
         <v>68127</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1662,8 +1681,11 @@
       <c r="E6">
         <v>68134</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1679,8 +1701,11 @@
       <c r="E7">
         <v>68127</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1696,8 +1721,11 @@
       <c r="E8">
         <v>68104</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1713,8 +1741,11 @@
       <c r="E9">
         <v>68152</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1730,8 +1761,11 @@
       <c r="E10">
         <v>68122</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1747,8 +1781,11 @@
       <c r="E11">
         <v>68134</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1764,8 +1801,11 @@
       <c r="E12">
         <v>68106</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1781,8 +1821,11 @@
       <c r="E13">
         <v>68144</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1798,8 +1841,11 @@
       <c r="E14">
         <v>68154</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1815,8 +1861,11 @@
       <c r="E15">
         <v>68105</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1832,8 +1881,11 @@
       <c r="E16">
         <v>68114</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1849,8 +1901,11 @@
       <c r="E17">
         <v>68164</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1866,8 +1921,11 @@
       <c r="E18">
         <v>68124</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1883,8 +1941,11 @@
       <c r="E19">
         <v>68114</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1900,8 +1961,11 @@
       <c r="E20">
         <v>68124</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1917,8 +1981,11 @@
       <c r="E21">
         <v>68138</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1934,8 +2001,11 @@
       <c r="E22">
         <v>68102</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1951,8 +2021,11 @@
       <c r="E23">
         <v>68135</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1968,8 +2041,11 @@
       <c r="E24">
         <v>68136</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1985,8 +2061,11 @@
       <c r="E25">
         <v>68114</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2002,8 +2081,11 @@
       <c r="E26">
         <v>68154</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2019,8 +2101,11 @@
       <c r="E27">
         <v>68154</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2036,8 +2121,11 @@
       <c r="E28">
         <v>68131</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2053,8 +2141,11 @@
       <c r="E29">
         <v>68164</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2070,8 +2161,11 @@
       <c r="E30">
         <v>68110</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2087,8 +2181,11 @@
       <c r="E31">
         <v>68107</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -2104,8 +2201,11 @@
       <c r="E32">
         <v>68104</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -2121,8 +2221,11 @@
       <c r="E33">
         <v>68130</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -2138,8 +2241,11 @@
       <c r="E34">
         <v>75571</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -2155,8 +2261,11 @@
       <c r="E35">
         <v>75571</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -2172,8 +2281,11 @@
       <c r="E36">
         <v>68104</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2189,8 +2301,11 @@
       <c r="E37">
         <v>68107</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -2206,8 +2321,11 @@
       <c r="E38">
         <v>68104</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -2223,8 +2341,11 @@
       <c r="E39">
         <v>68134</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -2240,8 +2361,11 @@
       <c r="E40">
         <v>68505</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>190</v>
       </c>
@@ -2257,8 +2381,11 @@
       <c r="E41">
         <v>68505</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -2274,8 +2401,11 @@
       <c r="E42">
         <v>68117</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>194</v>
       </c>
@@ -2291,8 +2421,11 @@
       <c r="E43">
         <v>68517</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>196</v>
       </c>
@@ -2308,8 +2441,11 @@
       <c r="E44">
         <v>68105</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -2325,8 +2461,11 @@
       <c r="E45">
         <v>68110</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>200</v>
       </c>
@@ -2342,8 +2481,11 @@
       <c r="E46">
         <v>68134</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>202</v>
       </c>
@@ -2359,8 +2501,11 @@
       <c r="E47">
         <v>68105</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>204</v>
       </c>
@@ -2376,8 +2521,11 @@
       <c r="E48">
         <v>68117</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>206</v>
       </c>
@@ -2393,8 +2541,11 @@
       <c r="E49">
         <v>68164</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -2410,8 +2561,11 @@
       <c r="E50">
         <v>68105</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>210</v>
       </c>
@@ -2427,8 +2581,11 @@
       <c r="E51">
         <v>68510</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>212</v>
       </c>
@@ -2444,8 +2601,11 @@
       <c r="E52">
         <v>68110</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>214</v>
       </c>
@@ -2461,8 +2621,11 @@
       <c r="E53">
         <v>68134</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -2478,8 +2641,11 @@
       <c r="E54">
         <v>68164</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -2495,8 +2661,11 @@
       <c r="E55">
         <v>68510</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>220</v>
       </c>
@@ -2512,8 +2681,11 @@
       <c r="E56">
         <v>68517</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -2529,8 +2701,11 @@
       <c r="E57">
         <v>68164</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>224</v>
       </c>
@@ -2546,8 +2721,11 @@
       <c r="E58">
         <v>68510</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>226</v>
       </c>
@@ -2563,8 +2741,11 @@
       <c r="E59">
         <v>68134</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>228</v>
       </c>
@@ -2580,8 +2761,11 @@
       <c r="E60">
         <v>68144</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>230</v>
       </c>
@@ -2597,8 +2781,11 @@
       <c r="E61">
         <v>68505</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>232</v>
       </c>
@@ -2614,8 +2801,11 @@
       <c r="E62">
         <v>68510</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>234</v>
       </c>
@@ -2631,8 +2821,11 @@
       <c r="E63">
         <v>68105</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>236</v>
       </c>
@@ -2648,8 +2841,11 @@
       <c r="E64">
         <v>68134</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>238</v>
       </c>
@@ -2665,8 +2861,11 @@
       <c r="E65">
         <v>68517</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>240</v>
       </c>
@@ -2682,8 +2881,11 @@
       <c r="E66">
         <v>68117</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>242</v>
       </c>
@@ -2699,8 +2901,11 @@
       <c r="E67">
         <v>68517</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>244</v>
       </c>
@@ -2716,8 +2921,11 @@
       <c r="E68">
         <v>68110</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>246</v>
       </c>
@@ -2733,8 +2941,11 @@
       <c r="E69">
         <v>68164</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>248</v>
       </c>
@@ -2750,8 +2961,11 @@
       <c r="E70">
         <v>68105</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>250</v>
       </c>
@@ -2767,8 +2981,11 @@
       <c r="E71">
         <v>68105</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>252</v>
       </c>
@@ -2784,8 +3001,11 @@
       <c r="E72">
         <v>68505</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>254</v>
       </c>
@@ -2801,8 +3021,11 @@
       <c r="E73">
         <v>68117</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>256</v>
       </c>
@@ -2818,8 +3041,11 @@
       <c r="E74">
         <v>68144</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>258</v>
       </c>
@@ -2835,8 +3061,11 @@
       <c r="E75">
         <v>68110</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>260</v>
       </c>
@@ -2852,8 +3081,11 @@
       <c r="E76">
         <v>68117</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>262</v>
       </c>
@@ -2869,8 +3101,11 @@
       <c r="E77">
         <v>68510</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>264</v>
       </c>
@@ -2886,8 +3121,11 @@
       <c r="E78">
         <v>68144</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>266</v>
       </c>
@@ -2903,8 +3141,11 @@
       <c r="E79">
         <v>68144</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>268</v>
       </c>
@@ -2920,8 +3161,11 @@
       <c r="E80">
         <v>68510</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>270</v>
       </c>
@@ -2937,8 +3181,11 @@
       <c r="E81">
         <v>68134</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>272</v>
       </c>
@@ -2954,8 +3201,11 @@
       <c r="E82">
         <v>68117</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>274</v>
       </c>
@@ -2971,8 +3221,11 @@
       <c r="E83">
         <v>68105</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>276</v>
       </c>
@@ -2988,8 +3241,11 @@
       <c r="E84">
         <v>68505</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>278</v>
       </c>
@@ -3005,8 +3261,11 @@
       <c r="E85">
         <v>68505</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>280</v>
       </c>
@@ -3022,8 +3281,11 @@
       <c r="E86">
         <v>68164</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>282</v>
       </c>
@@ -3039,8 +3301,11 @@
       <c r="E87">
         <v>68164</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>284</v>
       </c>
@@ -3056,8 +3321,11 @@
       <c r="E88">
         <v>68164</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>286</v>
       </c>
@@ -3073,8 +3341,11 @@
       <c r="E89">
         <v>68517</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>288</v>
       </c>
@@ -3090,8 +3361,11 @@
       <c r="E90">
         <v>68517</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>290</v>
       </c>
@@ -3107,8 +3381,11 @@
       <c r="E91">
         <v>68510</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>292</v>
       </c>
@@ -3124,8 +3401,11 @@
       <c r="E92">
         <v>68134</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>294</v>
       </c>
@@ -3141,8 +3421,11 @@
       <c r="E93">
         <v>68117</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>296</v>
       </c>
@@ -3158,8 +3441,11 @@
       <c r="E94">
         <v>68134</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>298</v>
       </c>
@@ -3175,8 +3461,11 @@
       <c r="E95">
         <v>68144</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>300</v>
       </c>
@@ -3192,8 +3481,11 @@
       <c r="E96">
         <v>68117</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>302</v>
       </c>
@@ -3209,8 +3501,11 @@
       <c r="E97">
         <v>68134</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>304</v>
       </c>
@@ -3226,8 +3521,11 @@
       <c r="E98">
         <v>68144</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>306</v>
       </c>
@@ -3243,8 +3541,11 @@
       <c r="E99">
         <v>68517</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>308</v>
       </c>
@@ -3260,8 +3561,11 @@
       <c r="E100">
         <v>68117</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>310</v>
       </c>
@@ -3277,8 +3581,11 @@
       <c r="E101">
         <v>68144</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>312</v>
       </c>
@@ -3294,8 +3601,11 @@
       <c r="E102">
         <v>68134</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>314</v>
       </c>
@@ -3311,8 +3621,11 @@
       <c r="E103">
         <v>68144</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>316</v>
       </c>
@@ -3328,8 +3641,11 @@
       <c r="E104">
         <v>68164</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>318</v>
       </c>
@@ -3345,8 +3661,11 @@
       <c r="E105">
         <v>68510</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>320</v>
       </c>
@@ -3362,8 +3681,11 @@
       <c r="E106">
         <v>68134</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>322</v>
       </c>
@@ -3379,8 +3701,11 @@
       <c r="E107">
         <v>68110</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>324</v>
       </c>
@@ -3396,8 +3721,11 @@
       <c r="E108">
         <v>68144</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>326</v>
       </c>
@@ -3413,8 +3741,11 @@
       <c r="E109">
         <v>68510</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>328</v>
       </c>
@@ -3430,8 +3761,11 @@
       <c r="E110">
         <v>68105</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>330</v>
       </c>
@@ -3447,8 +3781,11 @@
       <c r="E111">
         <v>68144</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>332</v>
       </c>
@@ -3464,8 +3801,11 @@
       <c r="E112">
         <v>68110</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>334</v>
       </c>
@@ -3481,8 +3821,11 @@
       <c r="E113">
         <v>68117</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>336</v>
       </c>
@@ -3498,8 +3841,11 @@
       <c r="E114">
         <v>68517</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>338</v>
       </c>
@@ -3515,8 +3861,11 @@
       <c r="E115">
         <v>68164</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>340</v>
       </c>
@@ -3532,8 +3881,11 @@
       <c r="E116">
         <v>68517</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>342</v>
       </c>
@@ -3549,8 +3901,11 @@
       <c r="E117">
         <v>68510</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>344</v>
       </c>
@@ -3566,8 +3921,11 @@
       <c r="E118">
         <v>68144</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>346</v>
       </c>
@@ -3583,8 +3941,11 @@
       <c r="E119">
         <v>68134</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>348</v>
       </c>
@@ -3600,8 +3961,11 @@
       <c r="E120">
         <v>68144</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>350</v>
       </c>
@@ -3617,8 +3981,11 @@
       <c r="E121">
         <v>68517</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>352</v>
       </c>
@@ -3634,8 +4001,11 @@
       <c r="E122">
         <v>68117</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>354</v>
       </c>
@@ -3651,8 +4021,11 @@
       <c r="E123">
         <v>68510</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>356</v>
       </c>
@@ -3668,8 +4041,11 @@
       <c r="E124">
         <v>68110</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>358</v>
       </c>
@@ -3685,8 +4061,11 @@
       <c r="E125">
         <v>68517</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>360</v>
       </c>
@@ -3702,8 +4081,11 @@
       <c r="E126">
         <v>68117</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>362</v>
       </c>
@@ -3719,8 +4101,11 @@
       <c r="E127">
         <v>68105</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>364</v>
       </c>
@@ -3736,8 +4121,11 @@
       <c r="E128">
         <v>68510</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>366</v>
       </c>
@@ -3753,8 +4141,11 @@
       <c r="E129">
         <v>68164</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>368</v>
       </c>
@@ -3770,8 +4161,11 @@
       <c r="E130">
         <v>68505</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>370</v>
       </c>
@@ -3787,8 +4181,11 @@
       <c r="E131">
         <v>68517</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>372</v>
       </c>
@@ -3804,8 +4201,11 @@
       <c r="E132">
         <v>68510</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>374</v>
       </c>
@@ -3821,8 +4221,11 @@
       <c r="E133">
         <v>68105</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>376</v>
       </c>
@@ -3838,8 +4241,11 @@
       <c r="E134">
         <v>68110</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>378</v>
       </c>
@@ -3855,8 +4261,11 @@
       <c r="E135">
         <v>68117</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>380</v>
       </c>
@@ -3872,8 +4281,11 @@
       <c r="E136">
         <v>68517</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>382</v>
       </c>
@@ -3889,8 +4301,11 @@
       <c r="E137">
         <v>68505</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>384</v>
       </c>
@@ -3905,6 +4320,9 @@
       </c>
       <c r="E138">
         <v>68110</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3918,659 +4336,659 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>184</v>
       </c>
